--- a/SchedulingData/dynamic12/pso/scheduling1_1.xlsx
+++ b/SchedulingData/dynamic12/pso/scheduling1_1.xlsx
@@ -462,21 +462,21 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>71.14</v>
+        <v>30.76</v>
       </c>
       <c r="E2" t="n">
-        <v>27.036</v>
+        <v>27.624</v>
       </c>
     </row>
     <row r="3">
@@ -485,150 +485,150 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>53.6</v>
+        <v>72.06</v>
       </c>
       <c r="E3" t="n">
-        <v>25.84</v>
+        <v>25.464</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond31</t>
+          <t>pond18</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>72.06</v>
       </c>
       <c r="D4" t="n">
-        <v>53.3</v>
+        <v>136.64</v>
       </c>
       <c r="E4" t="n">
-        <v>27.36</v>
+        <v>21.616</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>53.6</v>
+        <v>30.76</v>
       </c>
       <c r="D5" t="n">
-        <v>120.06</v>
+        <v>77.7</v>
       </c>
       <c r="E5" t="n">
-        <v>21.304</v>
+        <v>24.06</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>136.64</v>
       </c>
       <c r="D6" t="n">
-        <v>76.86</v>
+        <v>182.58</v>
       </c>
       <c r="E6" t="n">
-        <v>26.984</v>
+        <v>18.652</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond25</t>
+          <t>pond14</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>71.14</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>121.66</v>
+        <v>51.52</v>
       </c>
       <c r="E7" t="n">
-        <v>23.604</v>
+        <v>26.528</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>121.66</v>
+        <v>182.58</v>
       </c>
       <c r="D8" t="n">
-        <v>165.26</v>
+        <v>253.84</v>
       </c>
       <c r="E8" t="n">
-        <v>20.884</v>
+        <v>15.116</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>63.2</v>
+        <v>50.5</v>
       </c>
       <c r="E9" t="n">
-        <v>25.38</v>
+        <v>26.64</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond24</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>63.2</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>104.96</v>
+        <v>66.2</v>
       </c>
       <c r="E10" t="n">
-        <v>21.844</v>
+        <v>26.58</v>
       </c>
     </row>
     <row r="11">
@@ -637,36 +637,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond21</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>77.7</v>
       </c>
       <c r="D11" t="n">
-        <v>60.7</v>
+        <v>140.6</v>
       </c>
       <c r="E11" t="n">
-        <v>26.1</v>
+        <v>19.9</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond35</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>60.7</v>
+        <v>51.52</v>
       </c>
       <c r="D12" t="n">
-        <v>122.7</v>
+        <v>109.62</v>
       </c>
       <c r="E12" t="n">
-        <v>22.02</v>
+        <v>23.808</v>
       </c>
     </row>
     <row r="13">
@@ -675,93 +675,93 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>76.86</v>
+        <v>66.2</v>
       </c>
       <c r="D13" t="n">
-        <v>157.04</v>
+        <v>135.1</v>
       </c>
       <c r="E13" t="n">
-        <v>23.576</v>
+        <v>24.26</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>165.26</v>
+        <v>253.84</v>
       </c>
       <c r="D14" t="n">
-        <v>209.3</v>
+        <v>298.74</v>
       </c>
       <c r="E14" t="n">
-        <v>18.1</v>
+        <v>12.756</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>120.06</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>181.9</v>
+        <v>67.73999999999999</v>
       </c>
       <c r="E15" t="n">
-        <v>17.74</v>
+        <v>26.876</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>122.7</v>
+        <v>298.74</v>
       </c>
       <c r="D16" t="n">
-        <v>160.34</v>
+        <v>360.54</v>
       </c>
       <c r="E16" t="n">
-        <v>18.896</v>
+        <v>9.676</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond20</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>209.3</v>
+        <v>140.6</v>
       </c>
       <c r="D17" t="n">
-        <v>256.02</v>
+        <v>198.48</v>
       </c>
       <c r="E17" t="n">
-        <v>15.548</v>
+        <v>17.212</v>
       </c>
     </row>
     <row r="18">
@@ -770,17 +770,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>157.04</v>
+        <v>135.1</v>
       </c>
       <c r="D18" t="n">
-        <v>226.52</v>
+        <v>179.14</v>
       </c>
       <c r="E18" t="n">
-        <v>19.728</v>
+        <v>21.476</v>
       </c>
     </row>
     <row r="19">
@@ -789,55 +789,55 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond22</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>226.52</v>
+        <v>179.14</v>
       </c>
       <c r="D19" t="n">
-        <v>270.68</v>
+        <v>225.86</v>
       </c>
       <c r="E19" t="n">
-        <v>16.452</v>
+        <v>18.924</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>181.9</v>
+        <v>109.62</v>
       </c>
       <c r="D20" t="n">
-        <v>261.3</v>
+        <v>168.16</v>
       </c>
       <c r="E20" t="n">
-        <v>14.88</v>
+        <v>20.064</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond55</t>
+          <t>pond21</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>261.3</v>
+        <v>168.16</v>
       </c>
       <c r="D21" t="n">
-        <v>330.7</v>
+        <v>218.46</v>
       </c>
       <c r="E21" t="n">
-        <v>11.52</v>
+        <v>16.164</v>
       </c>
     </row>
     <row r="22">
@@ -846,36 +846,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>270.68</v>
+        <v>225.86</v>
       </c>
       <c r="D22" t="n">
-        <v>317.84</v>
+        <v>293.16</v>
       </c>
       <c r="E22" t="n">
-        <v>13.856</v>
+        <v>14.304</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond18</t>
+          <t>pond55</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>104.96</v>
+        <v>67.73999999999999</v>
       </c>
       <c r="D23" t="n">
-        <v>179.24</v>
+        <v>127.34</v>
       </c>
       <c r="E23" t="n">
-        <v>17.996</v>
+        <v>23.516</v>
       </c>
     </row>
     <row r="24">
@@ -884,17 +884,17 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond22</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>317.84</v>
+        <v>293.16</v>
       </c>
       <c r="D24" t="n">
-        <v>358.78</v>
+        <v>342.12</v>
       </c>
       <c r="E24" t="n">
-        <v>10.892</v>
+        <v>11.028</v>
       </c>
     </row>
     <row r="25">
@@ -903,74 +903,74 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond35</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>330.7</v>
+        <v>360.54</v>
       </c>
       <c r="D25" t="n">
-        <v>391.84</v>
+        <v>417.74</v>
       </c>
       <c r="E25" t="n">
-        <v>8.496</v>
+        <v>5.596</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond20</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>53.3</v>
+        <v>50.5</v>
       </c>
       <c r="D26" t="n">
-        <v>101.28</v>
+        <v>110.28</v>
       </c>
       <c r="E26" t="n">
-        <v>24.672</v>
+        <v>22.792</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>160.34</v>
+        <v>342.12</v>
       </c>
       <c r="D27" t="n">
-        <v>194.54</v>
+        <v>417.2</v>
       </c>
       <c r="E27" t="n">
-        <v>16.616</v>
+        <v>7.62</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond49</t>
+          <t>pond44</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>179.24</v>
+        <v>127.34</v>
       </c>
       <c r="D28" t="n">
-        <v>233.86</v>
+        <v>177.24</v>
       </c>
       <c r="E28" t="n">
-        <v>15.164</v>
+        <v>20.636</v>
       </c>
     </row>
     <row r="29">
@@ -979,74 +979,74 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>pond25</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>194.54</v>
+        <v>198.48</v>
       </c>
       <c r="D29" t="n">
-        <v>249.14</v>
+        <v>253.9</v>
       </c>
       <c r="E29" t="n">
-        <v>14.256</v>
+        <v>13.78</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond49</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>256.02</v>
+        <v>218.46</v>
       </c>
       <c r="D30" t="n">
-        <v>320.82</v>
+        <v>287.78</v>
       </c>
       <c r="E30" t="n">
-        <v>12.188</v>
+        <v>13.332</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>358.78</v>
+        <v>253.9</v>
       </c>
       <c r="D31" t="n">
-        <v>410.38</v>
+        <v>292.9</v>
       </c>
       <c r="E31" t="n">
-        <v>7.352</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond14</t>
+          <t>pond56</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>233.86</v>
+        <v>110.28</v>
       </c>
       <c r="D32" t="n">
-        <v>319.48</v>
+        <v>173.6</v>
       </c>
       <c r="E32" t="n">
-        <v>11.692</v>
+        <v>18.58</v>
       </c>
     </row>
     <row r="33">
@@ -1055,17 +1055,17 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond56</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>249.14</v>
+        <v>292.9</v>
       </c>
       <c r="D33" t="n">
-        <v>302.56</v>
+        <v>336.12</v>
       </c>
       <c r="E33" t="n">
-        <v>10.044</v>
+        <v>8.308</v>
       </c>
     </row>
     <row r="34">
@@ -1074,93 +1074,93 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>319.48</v>
+        <v>287.78</v>
       </c>
       <c r="D34" t="n">
-        <v>373.58</v>
+        <v>329.32</v>
       </c>
       <c r="E34" t="n">
-        <v>9.372</v>
+        <v>10.308</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>101.28</v>
+        <v>329.32</v>
       </c>
       <c r="D35" t="n">
-        <v>139.6</v>
+        <v>369.04</v>
       </c>
       <c r="E35" t="n">
-        <v>21.48</v>
+        <v>7.976</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pond44</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>139.6</v>
+        <v>336.12</v>
       </c>
       <c r="D36" t="n">
-        <v>179.8</v>
+        <v>387.58</v>
       </c>
       <c r="E36" t="n">
-        <v>18.6</v>
+        <v>5.292</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>302.56</v>
+        <v>173.6</v>
       </c>
       <c r="D37" t="n">
-        <v>368.16</v>
+        <v>249.14</v>
       </c>
       <c r="E37" t="n">
-        <v>6.624</v>
+        <v>15.616</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>179.8</v>
+        <v>249.14</v>
       </c>
       <c r="D38" t="n">
-        <v>219.32</v>
+        <v>303.94</v>
       </c>
       <c r="E38" t="n">
-        <v>16.268</v>
+        <v>12.756</v>
       </c>
     </row>
     <row r="39">
@@ -1169,36 +1169,36 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond31</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>219.32</v>
+        <v>177.24</v>
       </c>
       <c r="D39" t="n">
-        <v>282.96</v>
+        <v>229.74</v>
       </c>
       <c r="E39" t="n">
-        <v>12.524</v>
+        <v>17.996</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>282.96</v>
+        <v>369.04</v>
       </c>
       <c r="D40" t="n">
-        <v>350.06</v>
+        <v>425.74</v>
       </c>
       <c r="E40" t="n">
-        <v>9.444000000000001</v>
+        <v>4.436</v>
       </c>
     </row>
     <row r="41">
@@ -1207,17 +1207,17 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>368.16</v>
+        <v>387.58</v>
       </c>
       <c r="D41" t="n">
-        <v>398.32</v>
+        <v>424.84</v>
       </c>
       <c r="E41" t="n">
-        <v>4.248</v>
+        <v>2.696</v>
       </c>
     </row>
   </sheetData>
